--- a/lagledare_truck.xlsx
+++ b/lagledare_truck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedometic-my.sharepoint.com/personal/martin_petersson_dometic_com/Documents/Skrivbordet/HOME1/Apps/Frekvensanalys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{5B1E7E70-6A2C-4FA5-9913-59E9EA794D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51DB48CD-A526-4589-B5A1-A13A2E505840}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{5B1E7E70-6A2C-4FA5-9913-59E9EA794D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5B4128-29B2-46AA-973A-A7E2647796A8}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Kategori</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Aktivitet</t>
   </si>
   <si>
-    <t>Logistik</t>
-  </si>
-  <si>
     <t>Problem</t>
   </si>
   <si>
@@ -122,6 +119,12 @@
   </si>
   <si>
     <t>Utan truck</t>
+  </si>
+  <si>
+    <t>Matförsörj.</t>
+  </si>
+  <si>
+    <t>Administ.</t>
   </si>
 </sst>
 </file>
@@ -782,13 +785,13 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -812,264 +815,266 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/lagledare_truck.xlsx
+++ b/lagledare_truck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedometic-my.sharepoint.com/personal/martin_petersson_dometic_com/Documents/Skrivbordet/HOME1/Apps/Frekvensanalys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{5B1E7E70-6A2C-4FA5-9913-59E9EA794D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5B4128-29B2-46AA-973A-A7E2647796A8}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{5B1E7E70-6A2C-4FA5-9913-59E9EA794D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20475EE9-D2D8-47FE-A44D-3322563A9BF9}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>Kategori</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Administ.</t>
+  </si>
+  <si>
+    <t>Rast</t>
   </si>
 </sst>
 </file>
@@ -482,8 +485,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF48DA23-3E59-4607-B2B4-8A642AED3858}" name="Table1" displayName="Table1" ref="A1:C25" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:C25" xr:uid="{BF48DA23-3E59-4607-B2B4-8A642AED3858}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF48DA23-3E59-4607-B2B4-8A642AED3858}" name="Table1" displayName="Table1" ref="A1:C26" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A1:C26" xr:uid="{BF48DA23-3E59-4607-B2B4-8A642AED3858}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A3768F14-CCAD-44BA-BF45-88778F5F665B}" name="Kategori" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{C4189BEF-9E3C-4B91-9321-6CBA1D620671}" name="Underkategori" dataDxfId="4"/>
@@ -786,7 +789,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1080,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C1048576 C1">
     <cfRule type="duplicateValues" dxfId="2" priority="294"/>
